--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk1-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk1-Lrp4.xlsx
@@ -537,7 +537,7 @@
         <v>0.03046</v>
       </c>
       <c r="H2">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8686949999999999</v>
+        <v>0.6746743333333334</v>
       </c>
       <c r="N2">
-        <v>2.606085</v>
+        <v>2.024023</v>
       </c>
       <c r="O2">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
       <c r="P2">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
       <c r="Q2">
-        <v>0.0264604497</v>
+        <v>0.02055058019333333</v>
       </c>
       <c r="R2">
-        <v>0.2381440472999999</v>
+        <v>0.18495522174</v>
       </c>
       <c r="S2">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
       <c r="T2">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.03046</v>
       </c>
       <c r="H3">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>13.435647</v>
       </c>
       <c r="O3">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600617</v>
       </c>
       <c r="P3">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600616</v>
       </c>
       <c r="Q3">
         <v>0.13641660254</v>
@@ -632,10 +632,10 @@
         <v>1.22774942286</v>
       </c>
       <c r="S3">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600617</v>
       </c>
       <c r="T3">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.03046</v>
       </c>
       <c r="H4">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>13.172517</v>
       </c>
       <c r="O4">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
       <c r="P4">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
       <c r="Q4">
         <v>0.13374495594</v>
@@ -694,10 +694,10 @@
         <v>1.20370460346</v>
       </c>
       <c r="S4">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
       <c r="T4">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
     </row>
   </sheetData>
